--- a/pred_ohlcv/54_21/2020-01-16 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 HC ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>5030.51887056</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5819.536570560001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6926.259170560001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>7332.06387056</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6105.16687056</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>6073.266870560001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>6063.266870560001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>6035.326870560001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>6010.776970560001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>5975.776970560001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>6002.604603020001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5975.777003020002</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5977.177003020001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5977.807403020001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5977.807403020001</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5955.107403020002</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5955.107503020002</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6042.736703020002</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6074.163503020002</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-412.1667659999955</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1616.193865999996</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2040.504265999996</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2063.826765999996</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2587.655634000005</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3463.426934000005</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3664.913534000005</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3741.778934000005</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>11038.42135183001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>5894.029047270005</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>8737.022747270006</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9219.399647270006</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>10017.01264727</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>18948.06939508001</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>20565.18207806001</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>21458.08877806001</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>18746.60817806001</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>22933.32727806001</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>22803.62757806001</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>22333.91997806001</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>24116.53897806001</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>24719.93487806001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>25390.88067806001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>26969.91177806001</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>22299.18257806001</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>21534.87067806001</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>23211.59267806001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>22230.03147806001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>22159.15147806001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>22602.17349276001</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>22662.26859276001</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>22691.02639276001</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>22649.01649276001</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>17298.52039275999</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>18395.48029276</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>19164.34299276</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>19043.81349276</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>19103.22969276</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>19103.22969276</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>19137.76579276</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>18247.00479276</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>18281.45569276</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>18281.45569276</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>18808.34999276</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>18720.34999276</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>18723.84999276</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>18723.84999276</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>18723.22509276</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>18708.22509276</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>18705.82509276</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>18615.07509276</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18610.78629276</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18638.08629276</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>18428.51519276</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>17937.61829276</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>17938.61829276</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>17425.13829276</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>16903.04949276</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>16904.13829276</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>16747.00329276</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>16982.45569276</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>17132.4711867</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>16679.0199867</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>16680.0199867</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>17816.3048867</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>18043.4267884</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>17985.1139884</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>18998.15728840001</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>18997.15728840001</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>18998.15728840001</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>19045.6889884</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>19035.6889884</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>19036.1889884</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>20830.25521813001</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>20830.25521813001</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>20976.77381813</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>20976.77381813</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>20948.47381813001</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>21067.19541813001</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>19911.84381813001</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>19799.45771813001</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>19799.45771813001</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>19709.91271813001</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>19709.91271813001</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>19966.03161813001</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>19913.36541813001</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>24654.72281876002</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>28394.83021876002</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>27360.48361876002</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>23000.95261876002</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>23001.95261876002</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>21894.70941876002</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>22691.05998579002</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>22114.78618579002</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>22344.24008579002</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>22356.21330007002</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>22270.85283542002</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>22963.74063542002</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>23000.74063542002</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>23014.73680732002</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>22991.18650732002</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>21181.60090732002</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>21339.99140732002</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>21256.78750732002</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>20705.60703846002</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>21600.26433846002</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>21641.61793846002</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>21641.61793846002</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>16394.89403846002</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>16394.89403846002</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>19336.54950309002</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>16959.18353119002</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>16618.60293119002</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 HC ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>5185.70007056</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>5184.20007056</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5225.460170560001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5037.76887056</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>5033.76887056</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>5030.51887056</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5819.536570560001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6926.259170560001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>7332.06387056</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-834.6332659999955</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-412.1667659999955</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1616.193865999996</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2040.504265999996</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2063.826765999996</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2587.655634000005</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3463.426934000005</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3664.913534000005</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3741.778934000005</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>11038.42135183001</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>5894.029047270005</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>8737.022747270006</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>9219.399647270006</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>10017.01264727</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>17557.09999508001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>18948.06939508001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>17660.75919508001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>20585.18207806001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>20565.18207806001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>21471.65067806001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>21458.08877806001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>18746.60817806001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>22933.32727806001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>22594.21687806001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>22333.91997806001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>24243.76037806001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>24116.53897806001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>24719.93487806001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>24719.93487806001</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>25390.88067806001</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>25624.37097806001</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>25627.29077806001</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>24023.34557806001</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>22230.03147806001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>22159.15147806001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>22670.27299276001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>22667.84299276001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>22649.01649276001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>22548.29349276</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>22556.34559276</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>22527.74759276</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>22295.07809276</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>22290.07809276</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>17298.52039275999</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>18395.48029276</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>19164.34299276</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>19043.81349276</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>19103.22969276</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>19103.22969276</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>19137.76579276</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>18247.00479276</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>18281.45569276</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>18281.45569276</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>18808.34999276</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>18720.34999276</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>18723.84999276</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>18723.84999276</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>18723.22509276</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>18708.22509276</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>18705.82509276</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>18615.07509276</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18610.78629276</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>18638.08629276</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>18428.51519276</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>17937.61829276</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>17938.61829276</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>17425.13829276</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>16903.04949276</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>16904.13829276</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>16747.00329276</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>16836.14999276</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>16982.45569276</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>17132.4711867</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>16679.0199867</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>16680.0199867</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>17816.3048867</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>18043.4267884</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>17985.1139884</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>18998.15728840001</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>18997.15728840001</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>18998.15728840001</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>19045.6889884</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>19036.1889884</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>19016.1889884</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>19092.17811813</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>20830.25521813001</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>20830.25521813001</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>20976.77381813</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>20976.77381813</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>20948.47381813001</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>21038.24151813001</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>21038.53571813001</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>21067.19541813001</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>19911.84381813001</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>19799.45771813001</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>19799.45771813001</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>19709.91271813001</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>19709.91271813001</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>19760.91271813001</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>19966.03161813001</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>19913.36541813001</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>21799.11716462002</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>22668.08446462002</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>22668.08446462002</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>24278.31436462002</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>24278.31436462002</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>24490.66276462001</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>24512.73251876001</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>24545.51011876002</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>24545.51011876002</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>24654.72281876002</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>28377.80421876001</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>28394.83021876002</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>27360.48361876002</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>23000.95261876002</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>23001.95261876002</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>21548.97481876002</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>21883.70941876002</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>21894.70941876002</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>22691.05998579002</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>22114.78618579002</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>22344.24008579002</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>22356.21330007002</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>22270.85283542002</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>22963.74063542002</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>23000.74063542002</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>23014.73680732002</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>22991.18650732002</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>21181.60090732002</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>21339.99140732002</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>21256.78750732002</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>21298.14120732002</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>21270.10450732002</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>21172.51213846002</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>20705.60703846002</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>20705.60703846002</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>20723.62703846002</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>22659.44413846002</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>21826.13173846002</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>21600.26433846002</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>21641.61793846002</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>21641.61793846002</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>16394.89403846002</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>16394.89403846002</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>16827.89493846002</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>15243.41683846002</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>13931.24643846002</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>19336.54950309002</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>19336.54950309002</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>16959.18353119002</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>16959.18353119002</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>17025.31243119002</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>16783.91353119002</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>16783.91353119002</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>16784.91353119002</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>16618.60293119002</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>16498.12803119002</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>16228.88863119002</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>16229.16863119002</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>16209.60743119002</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>18197.52433119002</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>18437.91783119002</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>18301.53913119002</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>17621.65123119002</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>17687.61383119001</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>17687.61383119001</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>17644.09553119001</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>17823.90663119001</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>15623.50733119001</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>14014.16303119001</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>9441.556231190012</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>9446.146731190012</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
